--- a/file/fukasetsu.xlsx
+++ b/file/fukasetsu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seki/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CACA0D9B-9FFA-EC48-8665-2BEC9DB87095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D221D4-BD54-7C45-B7E3-C020797F32FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="1040" windowWidth="28300" windowHeight="17440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4680" yWindow="1040" windowWidth="28300" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="般若訳" sheetId="2" r:id="rId1"/>
@@ -2938,7 +2938,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D145"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -8841,7 +8841,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:E145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>

--- a/file/fukasetsu.xlsx
+++ b/file/fukasetsu.xlsx
@@ -2,15 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seki/Downloads/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D221D4-BD54-7C45-B7E3-C020797F32FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F1C5DD-10A0-A24B-BB03-B813DF5BE535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="1040" windowWidth="28300" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10220" yWindow="500" windowWidth="28300" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="般若訳" sheetId="2" r:id="rId1"/>
@@ -2938,9 +2933,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
